--- a/AO3_Ship_Stats_Summer_2024.xlsx
+++ b/AO3_Ship_Stats_Summer_2024.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Desktop\Q-Lab\Trabajo Final Python - Q-Lab\Trabajo-Final\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3333EC-65D5-42AA-BA1D-6DD88F2A3848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="183">
   <si>
     <t>Rank</t>
   </si>
@@ -37,23 +43,540 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Race</t>
+    <t>Aziraphale/Crowley (Good Omens)</t>
+  </si>
+  <si>
+    <t>Good Omens (TV)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Sirius Black/Remus Lupin</t>
+  </si>
+  <si>
+    <t>Harry Potter - J. K. Rowling</t>
+  </si>
+  <si>
+    <t>M/M</t>
+  </si>
+  <si>
+    <t>Dazai Osamu/Nakahara Chuuya (Bungou Stray Dogs)</t>
+  </si>
+  <si>
+    <t>文豪ストレイドッグス | Bungou Stray Dogs</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Astarion/Tav (Baldur's Gate)</t>
+  </si>
+  <si>
+    <t>Baldur's Gate (Video Games)</t>
+  </si>
+  <si>
+    <t>Ambig</t>
+  </si>
+  <si>
+    <t>Getou Suguru/Gojo Satoru</t>
+  </si>
+  <si>
+    <t>呪術廻戦 | Jujutsu Kaisen (Manga)</t>
+  </si>
+  <si>
+    <t>Alex Claremont-Diaz/Henry Fox-Mountchristen-Windsor</t>
+  </si>
+  <si>
+    <t>Red White &amp; Royal Blue - Casey McQuiston</t>
+  </si>
+  <si>
+    <t>Latino</t>
+  </si>
+  <si>
+    <t>Evan "Buck" Buckley/Eddie Diaz (9-1-1 TV)</t>
+  </si>
+  <si>
+    <t>9-1-1 (TV)</t>
+  </si>
+  <si>
+    <t>Regulus Black/James Potter</t>
+  </si>
+  <si>
+    <t>Draco Malfoy/Harry Potter</t>
+  </si>
+  <si>
+    <t>Steve Harrington/Eddie Munson</t>
+  </si>
+  <si>
+    <t>Stranger Things (TV 2016)</t>
+  </si>
+  <si>
+    <t>Neuvillette/Wriothesley (Genshin Impact)</t>
+  </si>
+  <si>
+    <t>原神 | Genshin Impact (Video Game)</t>
+  </si>
+  <si>
+    <t>Alhaitham/Kaveh (Genshin Impact)</t>
+  </si>
+  <si>
+    <t>MENA</t>
+  </si>
+  <si>
+    <t>Bakugou Katsuki/Midoriya Izuku</t>
+  </si>
+  <si>
+    <t>Boku no Hero Academia | My Hero Academia</t>
+  </si>
+  <si>
+    <t>Re-Entry</t>
+  </si>
+  <si>
+    <t>Aziraphale &amp; Crowley (Good Omens)</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Han Jisung | Han/Lee Minho | Lee Know</t>
+  </si>
+  <si>
+    <t>Stray Kids (Band)</t>
+  </si>
+  <si>
+    <t>Angel Dust/Husk (Hazbin Hotel)</t>
+  </si>
+  <si>
+    <t>Hazbin Hotel (Cartoon)</t>
+  </si>
+  <si>
+    <t>N.H.</t>
+  </si>
+  <si>
+    <t>John "Soap" MacTavish/Simon "Ghost" Riley</t>
+  </si>
+  <si>
+    <t>Call of Duty (Video Games)</t>
+  </si>
+  <si>
+    <t>Blackbeard | Edward Teach/Stede Bonnet</t>
+  </si>
+  <si>
+    <t>Our Flag Means Death (TV)</t>
+  </si>
+  <si>
+    <t>Indig</t>
+  </si>
+  <si>
+    <t>Charlie Magne | Morningstar/Vaggie</t>
+  </si>
+  <si>
+    <t>F/F</t>
+  </si>
+  <si>
+    <t>Hermione Granger/Draco Malfoy</t>
+  </si>
+  <si>
+    <t>F/M</t>
+  </si>
+  <si>
+    <t>James Potter/Lily Evans Potter</t>
+  </si>
+  <si>
+    <t>Blade/Dan Heng (Honkai: Star Rail)</t>
+  </si>
+  <si>
+    <t>崩坏：星穹铁道 | Honkai: Star Rail (Video Game)</t>
+  </si>
+  <si>
+    <t>Roronoa Zoro/Sanji</t>
+  </si>
+  <si>
+    <t>One Piece (Anime &amp; Manga)</t>
+  </si>
+  <si>
+    <t>Alastor/Lucifer Magne | Morningstar</t>
+  </si>
+  <si>
+    <t>Tim Bradford/Lucy Chen</t>
+  </si>
+  <si>
+    <t>The Rookie (TV 2018)</t>
+  </si>
+  <si>
+    <t>Lan Zhan | Lan Wangji/Wei Ying | Wei Wuxian</t>
+  </si>
+  <si>
+    <t>魔道祖师 - 墨香铜臭 | Módào Zǔshī - Mòxiāng Tóngxiù</t>
+  </si>
+  <si>
+    <t>Annabeth Chase/Percy Jackson</t>
+  </si>
+  <si>
+    <t>Percy Jackson and the Olympians - Rick Riordan</t>
+  </si>
+  <si>
+    <t>Evan "Buck" Buckley/Tommy Kinard</t>
+  </si>
+  <si>
+    <t>Aventurine/Dr. Ratio (Honkai: Star Rail)</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Dazai Osamu &amp; Nakahara Chuuya (Bungou Stray Dogs)</t>
+  </si>
+  <si>
+    <t>Gale/Tav (Baldur's Gate)</t>
+  </si>
+  <si>
+    <t>Will Graham/Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Hannibal (TV)</t>
+  </si>
+  <si>
+    <t>Akutagawa Ryuunosuke/Nakajima Atsushi (Bungou Stray Dogs)</t>
+  </si>
+  <si>
+    <t>Barty Crouch Jr./Evan Rosier</t>
+  </si>
+  <si>
+    <t>Hua Cheng/Xie Lian (Tian Guan Ci Fu)</t>
+  </si>
+  <si>
+    <t>天官赐福 - 墨香铜臭 | Tiān Guān Cì Fú - Mòxiāng Tóngxiù</t>
+  </si>
+  <si>
+    <t>Aizawa Shouta | Eraserhead/Yamada Hizashi | Present Mic</t>
+  </si>
+  <si>
+    <t>Colin Bridgerton/Penelope Featherington</t>
+  </si>
+  <si>
+    <t>Bridgerton (TV)</t>
+  </si>
+  <si>
+    <t>Castiel/Dean Winchester</t>
+  </si>
+  <si>
+    <t>Supernatural (TV 2005)</t>
+  </si>
+  <si>
+    <t>Blitzo/Stolas Goetia</t>
+  </si>
+  <si>
+    <t>Helluva Boss (Web Series)</t>
+  </si>
+  <si>
+    <t>Nicholas "Nick" Nelson/Charles "Charlie" Spring</t>
+  </si>
+  <si>
+    <t>Heartstopper (TV)</t>
+  </si>
+  <si>
+    <t>Marlene McKinnon/Dorcas Meadowes</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blade/Dan Feng | Previous Imbibitor Lunae (Honkai: Star Rail)</t>
+  </si>
+  <si>
+    <t>Jeon Jungkook/Kim Taehyung | V</t>
+  </si>
+  <si>
+    <t>Bangtan Boys | BTS</t>
+  </si>
+  <si>
+    <t>Gojo Satoru/Reader</t>
+  </si>
+  <si>
+    <t>呪術廻戦 | Jujutsu Kaisen (Anime)</t>
+  </si>
+  <si>
+    <t>Astarion/Gale (Baldur's Gate)</t>
+  </si>
+  <si>
+    <t>Bakugou Katsuki &amp; Midoriya Izuku</t>
+  </si>
+  <si>
+    <t>Fushiguro Megumi/Itadori Yuuji</t>
+  </si>
+  <si>
+    <t>Simon "Ghost" Riley/Reader</t>
+  </si>
+  <si>
+    <t>Alastor/Vox (Hazbin Hotel)</t>
+  </si>
+  <si>
+    <t>Kamishiro Rui/Tenma Tsukasa</t>
+  </si>
+  <si>
+    <t>Project SEKAI COLORFUL STAGE! (Video Game)</t>
+  </si>
+  <si>
+    <t>Nico di Angelo/Will Solace</t>
+  </si>
+  <si>
+    <t>Astarion (Baldur's Gate)/Reader</t>
+  </si>
+  <si>
+    <t>Hermione Granger/Ron Weasley</t>
+  </si>
+  <si>
+    <t>Peter Parker &amp; Tony Stark</t>
+  </si>
+  <si>
+    <t>Marvel Cinematic Universe</t>
+  </si>
+  <si>
+    <t>Robin Buckley/Nancy Wheeler</t>
+  </si>
+  <si>
+    <t>Astarion/The Dark Urge (Baldur's Gate)</t>
+  </si>
+  <si>
+    <t>Tartaglia | Childe/Zhongli (Genshin Impact)</t>
+  </si>
+  <si>
+    <t>Regulus Black &amp; Sirius Black</t>
+  </si>
+  <si>
+    <t>59=</t>
+  </si>
+  <si>
+    <t>Adrien Agreste | Chat Noir/Marinette Dupain-Cheng | Ladybug</t>
+  </si>
+  <si>
+    <t>Miraculous Ladybug</t>
+  </si>
+  <si>
+    <t>Kim Dokja/Yoo Joonghyuk</t>
+  </si>
+  <si>
+    <t>Omniscient Reader – Sing-Shong</t>
+  </si>
+  <si>
+    <t>Kim Hongjoong/Park Seonghwa</t>
+  </si>
+  <si>
+    <t>ATEEZ (Band)</t>
+  </si>
+  <si>
+    <t>Charles Leclerc/Max Verstappen</t>
+  </si>
+  <si>
+    <t>Formula 1 RPF</t>
+  </si>
+  <si>
+    <t>Harry Potter/Tom Riddle | Voldemort</t>
+  </si>
+  <si>
+    <t>Dick Grayson &amp; Jason Todd</t>
+  </si>
+  <si>
+    <t>Batman - All Media Types</t>
+  </si>
+  <si>
+    <t>Harry Potter/Ginny Weasley</t>
+  </si>
+  <si>
+    <t>Charles | Grian/Ryan | GoodTimesWithScar</t>
+  </si>
+  <si>
+    <t>Hermitcraft SMP</t>
+  </si>
+  <si>
+    <t>Valentino/Vox (Hazbin Hotel)</t>
+  </si>
+  <si>
+    <t>Uchiha Sasuke/Uzumaki Naruto</t>
+  </si>
+  <si>
+    <t>Naruto (Anime &amp; Manga)</t>
+  </si>
+  <si>
+    <t>Gojo Satoru/Itadori Yuuji</t>
+  </si>
+  <si>
+    <t>Aizawa Shouta | Eraserhead &amp; Midoriya Izuku</t>
+  </si>
+  <si>
+    <t>Donatello &amp; Leonardo &amp; Michelangelo &amp; Raphael (TMNT)</t>
+  </si>
+  <si>
+    <t>Rise of the Teenage Mutant Ninja Turtles (Cartoon 2018)</t>
+  </si>
+  <si>
+    <t>James T. Kirk/Spock</t>
+  </si>
+  <si>
+    <t>Star Trek: Alternate Original Series (Movies)</t>
+  </si>
+  <si>
+    <t>Link/Zelda (Legend of Zelda)</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda: Breath of the Wild/Tears of the Kingdom</t>
+  </si>
+  <si>
+    <t>74=</t>
+  </si>
+  <si>
+    <t>Merlin/Arthur Pendragon (Merlin)</t>
+  </si>
+  <si>
+    <t>Merlin (TV)</t>
+  </si>
+  <si>
+    <t>Tim Drake &amp; Jason Todd</t>
+  </si>
+  <si>
+    <t>Amity Blight/Luz Noceda</t>
+  </si>
+  <si>
+    <t>The Owl House (Cartoon)</t>
+  </si>
+  <si>
+    <t>Af Lat</t>
+  </si>
+  <si>
+    <t>Jeon Jungkook/Park Jimin</t>
+  </si>
+  <si>
+    <t>Getou Suguru &amp; Gojo Satoru</t>
+  </si>
+  <si>
+    <t>Choi San/Jung Wooyoung (ATEEZ)</t>
+  </si>
+  <si>
+    <t>Fyodor Dostoyevsky/Nikolai Gogol (Bungou Stray Dogs)</t>
+  </si>
+  <si>
+    <t>Neil Josten/Andrew Minyard</t>
+  </si>
+  <si>
+    <t>All For The Game - Nora Sakavic</t>
+  </si>
+  <si>
+    <t>Jason Todd &amp; Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Sung Hanbin/Zhang Hao</t>
+  </si>
+  <si>
+    <t>ZEROBASEONE | ZB1 (Korea Band)</t>
+  </si>
+  <si>
+    <t>Mitsurugi Reiji | Miles Edgeworth/Naruhodou Ryuuichi | Phoenix Wright</t>
+  </si>
+  <si>
+    <t>逆転裁判 | Gyakuten Saiban | Ace Attorney</t>
+  </si>
+  <si>
+    <t>The Dark Urge/Enver Gortash</t>
+  </si>
+  <si>
+    <t>Mikage Reo/Nagi Seishirou</t>
+  </si>
+  <si>
+    <t>Blue Lock (Manga)</t>
+  </si>
+  <si>
+    <t>Wednesday Addams/Enid Sinclair</t>
+  </si>
+  <si>
+    <t>Wednesday (TV 2022)</t>
+  </si>
+  <si>
+    <t>Loki/Mobius M. Mobius</t>
+  </si>
+  <si>
+    <t>Loki (TV 2021)</t>
+  </si>
+  <si>
+    <t>Akechi Goro/Persona 5 Protagonist</t>
+  </si>
+  <si>
+    <t>Persona 5</t>
+  </si>
+  <si>
+    <t>Mitsui Hisashi/Miyagi Ryota</t>
+  </si>
+  <si>
+    <t>Slam Dunk (Anime &amp; Manga)</t>
+  </si>
+  <si>
+    <t>Daemon Targaryen/Rhaenyra Targaryen</t>
+  </si>
+  <si>
+    <t>House of the Dragon (TV)</t>
+  </si>
+  <si>
+    <t>Jeon Wonwoo/Kim Mingyu</t>
+  </si>
+  <si>
+    <t>SEVENTEEN (Band)</t>
+  </si>
+  <si>
+    <t>Furina/Neuvillette (Genshin Impact)</t>
+  </si>
+  <si>
+    <t>Hwang Hyunjin/Lee Felix</t>
+  </si>
+  <si>
+    <t>95=</t>
+  </si>
+  <si>
+    <t>Dick Grayson &amp; Bruce Wayne</t>
+  </si>
+  <si>
+    <t>Rafael Lange | Cellbit/Roier</t>
+  </si>
+  <si>
+    <t>QSMP | Quackity SMP</t>
+  </si>
+  <si>
+    <t>Aemond "One-Eye" Targaryen/Lucerys Velaryon (Son of Rhaenyra)</t>
+  </si>
+  <si>
+    <t>Aoyagi Touya/Shinonome Akito</t>
+  </si>
+  <si>
+    <t>Ivan/Till (Alien Stage)</t>
+  </si>
+  <si>
+    <t>Alien Stage (Web Series)</t>
+  </si>
+  <si>
+    <t>Vash the Stampede/Nicholas D. Wolfwood</t>
+  </si>
+  <si>
+    <t>Trigun (Anime &amp; Manga 1995-2008)</t>
+  </si>
+  <si>
+    <t>Race1</t>
+  </si>
+  <si>
+    <t>Race2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +592,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -77,43 +600,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +664,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +698,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +733,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,37 +909,2948 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>14770</v>
+      </c>
+      <c r="F2">
+        <v>59648</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>9610</v>
+      </c>
+      <c r="F3">
+        <v>50357</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>8960</v>
+      </c>
+      <c r="F4">
+        <v>32770</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>8776</v>
+      </c>
+      <c r="F5">
+        <v>8776</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>7948</v>
+      </c>
+      <c r="F6">
+        <v>15322</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>7087</v>
+      </c>
+      <c r="F7">
+        <v>10094</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>6558</v>
+      </c>
+      <c r="F8">
+        <v>24057</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>6431</v>
+      </c>
+      <c r="F9">
+        <v>15556</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>5665</v>
+      </c>
+      <c r="F10">
+        <v>64692</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>5608</v>
+      </c>
+      <c r="F11">
+        <v>25409</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <v>5212</v>
+      </c>
+      <c r="F12">
+        <v>5212</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13">
+        <v>5181</v>
+      </c>
+      <c r="F13">
+        <v>11947</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>-5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14">
+        <v>4732</v>
+      </c>
+      <c r="F14">
+        <v>43102</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>4722</v>
+      </c>
+      <c r="F15">
+        <v>17386</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16">
+        <v>4668</v>
+      </c>
+      <c r="F16">
+        <v>16402</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>4650</v>
+      </c>
+      <c r="F17">
+        <v>5384</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>-12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>4592</v>
+      </c>
+      <c r="F18">
+        <v>10860</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>-11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <v>4544</v>
+      </c>
+      <c r="F19">
+        <v>18083</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20">
+        <v>4373</v>
+      </c>
+      <c r="F20">
+        <v>6019</v>
+      </c>
+      <c r="G20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" t="s">
+        <v>45</v>
+      </c>
+      <c r="I20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <v>4242</v>
+      </c>
+      <c r="F21">
+        <v>29032</v>
+      </c>
+      <c r="G21" t="s">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>4039</v>
+      </c>
+      <c r="F22">
+        <v>26767</v>
+      </c>
+      <c r="G22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23">
+        <v>3949</v>
+      </c>
+      <c r="F23">
+        <v>4668</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>3827</v>
+      </c>
+      <c r="F24">
+        <v>11572</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25">
+        <v>3746</v>
+      </c>
+      <c r="F25">
+        <v>3746</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26">
+        <v>3166</v>
+      </c>
+      <c r="F26">
+        <v>6526</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27">
+        <v>3080</v>
+      </c>
+      <c r="F27">
+        <v>37658</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>3072</v>
+      </c>
+      <c r="F28">
+        <v>14210</v>
+      </c>
+      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2923</v>
+      </c>
+      <c r="F29">
+        <v>2923</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30">
+        <v>2905</v>
+      </c>
+      <c r="F30">
+        <v>2905</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" t="s">
+        <v>69</v>
+      </c>
+      <c r="I30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>2785</v>
+      </c>
+      <c r="F31">
+        <v>8350</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32">
+        <v>2777</v>
+      </c>
+      <c r="F32">
+        <v>2777</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33">
+        <v>2694</v>
+      </c>
+      <c r="F33">
+        <v>28318</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34">
+        <v>2667</v>
+      </c>
+      <c r="F34">
+        <v>8653</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>2658</v>
+      </c>
+      <c r="F35">
+        <v>5083</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36">
+        <v>2639</v>
+      </c>
+      <c r="F36">
+        <v>10293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>-8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37">
+        <v>2590</v>
+      </c>
+      <c r="F37">
+        <v>22622</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38">
+        <v>2579</v>
+      </c>
+      <c r="F38">
+        <v>5034</v>
+      </c>
+      <c r="G38" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39">
+        <v>2562</v>
+      </c>
+      <c r="F39">
+        <v>105322</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E40">
+        <v>2523</v>
+      </c>
+      <c r="F40">
+        <v>4632</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41">
+        <v>2477</v>
+      </c>
+      <c r="F41">
+        <v>6339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>-19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>2440</v>
+      </c>
+      <c r="F42">
+        <v>8647</v>
+      </c>
+      <c r="G42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43">
+        <v>2411</v>
+      </c>
+      <c r="F43">
+        <v>2411</v>
+      </c>
+      <c r="G43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>-7</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44">
+        <v>2345</v>
+      </c>
+      <c r="F44">
+        <v>37355</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45">
+        <v>2331</v>
+      </c>
+      <c r="F45">
+        <v>5435</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46">
+        <v>2298</v>
+      </c>
+      <c r="F46">
+        <v>2298</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>-14</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47">
+        <v>2293</v>
+      </c>
+      <c r="F47">
+        <v>17971</v>
+      </c>
+      <c r="G47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48">
+        <v>2292</v>
+      </c>
+      <c r="F48">
+        <v>6658</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49">
+        <v>2290</v>
+      </c>
+      <c r="F49">
+        <v>4106</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="H49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50">
+        <v>2274</v>
+      </c>
+      <c r="F50">
+        <v>2274</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>-9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E51">
+        <v>2272</v>
+      </c>
+      <c r="F51">
+        <v>5260</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52">
+        <v>2203</v>
+      </c>
+      <c r="F52">
+        <v>12388</v>
+      </c>
+      <c r="G52" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" t="s">
+        <v>10</v>
+      </c>
+      <c r="I52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53">
+        <v>2184</v>
+      </c>
+      <c r="F53">
+        <v>2184</v>
+      </c>
+      <c r="G53" t="s">
+        <v>9</v>
+      </c>
+      <c r="H53" t="s">
+        <v>10</v>
+      </c>
+      <c r="I53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>2178</v>
+      </c>
+      <c r="F54">
+        <v>20899</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+      <c r="H54" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55">
+        <v>2149</v>
+      </c>
+      <c r="F55">
+        <v>28996</v>
+      </c>
+      <c r="G55" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s">
+        <v>10</v>
+      </c>
+      <c r="I55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>-40</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56">
+        <v>2122</v>
+      </c>
+      <c r="F56">
+        <v>8306</v>
+      </c>
+      <c r="G56" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" t="s">
+        <v>10</v>
+      </c>
+      <c r="I56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57">
+        <v>2095</v>
+      </c>
+      <c r="F57">
+        <v>2095</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>10</v>
+      </c>
+      <c r="I57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>-34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58">
+        <v>2040</v>
+      </c>
+      <c r="F58">
+        <v>14702</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
+      <c r="H58" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59">
+        <v>2038</v>
+      </c>
+      <c r="F59">
+        <v>5855</v>
+      </c>
+      <c r="G59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60">
+        <v>-3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>112</v>
+      </c>
+      <c r="E60">
+        <v>1990</v>
+      </c>
+      <c r="F60">
+        <v>35112</v>
+      </c>
+      <c r="G60" t="s">
+        <v>54</v>
+      </c>
+      <c r="H60" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61">
+        <v>1990</v>
+      </c>
+      <c r="F61">
+        <v>6370</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62">
+        <v>1952</v>
+      </c>
+      <c r="F62">
+        <v>7146</v>
+      </c>
+      <c r="G62" t="s">
+        <v>13</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63">
+        <v>1950</v>
+      </c>
+      <c r="F63">
+        <v>3636</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
+      <c r="H63" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>119</v>
+      </c>
+      <c r="D64" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64">
+        <v>1917</v>
+      </c>
+      <c r="F64">
+        <v>12783</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" t="s">
+        <v>120</v>
+      </c>
+      <c r="D65" t="s">
+        <v>121</v>
+      </c>
+      <c r="E65">
+        <v>1822</v>
+      </c>
+      <c r="F65">
+        <v>7765</v>
+      </c>
+      <c r="G65" t="s">
+        <v>40</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66">
+        <v>1819</v>
+      </c>
+      <c r="F66">
+        <v>17445</v>
+      </c>
+      <c r="G66" t="s">
+        <v>54</v>
+      </c>
+      <c r="H66" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>26</v>
+      </c>
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67">
+        <v>1807</v>
+      </c>
+      <c r="F67">
+        <v>4099</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" t="s">
+        <v>125</v>
+      </c>
+      <c r="D68" t="s">
+        <v>44</v>
+      </c>
+      <c r="E68">
+        <v>1805</v>
+      </c>
+      <c r="F68">
+        <v>2329</v>
+      </c>
+      <c r="G68" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" t="s">
+        <v>127</v>
+      </c>
+      <c r="E69">
+        <v>1799</v>
+      </c>
+      <c r="F69">
+        <v>14840</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70">
+        <v>1782</v>
+      </c>
+      <c r="F70">
+        <v>4236</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>-33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71">
+        <v>1779</v>
+      </c>
+      <c r="F71">
+        <v>12989</v>
+      </c>
+      <c r="G71" t="s">
+        <v>40</v>
+      </c>
+      <c r="H71" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>-44</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="E72">
+        <v>1758</v>
+      </c>
+      <c r="F72">
+        <v>5098</v>
+      </c>
+      <c r="G72" t="s">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>-9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73">
+        <v>1731</v>
+      </c>
+      <c r="F73">
+        <v>18008</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" t="s">
+        <v>135</v>
+      </c>
+      <c r="E74">
+        <v>1726</v>
+      </c>
+      <c r="F74">
+        <v>7390</v>
+      </c>
+      <c r="G74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H74" t="s">
+        <v>10</v>
+      </c>
+      <c r="I74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75">
+        <v>1713</v>
+      </c>
+      <c r="F75">
+        <v>28772</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76">
+        <v>1713</v>
+      </c>
+      <c r="F76">
+        <v>7180</v>
+      </c>
+      <c r="G76" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s">
+        <v>10</v>
+      </c>
+      <c r="I76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>-58</v>
+      </c>
+      <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
+        <v>141</v>
+      </c>
+      <c r="E77">
+        <v>1701</v>
+      </c>
+      <c r="F77">
+        <v>12404</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
+      </c>
+      <c r="D78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E78">
+        <v>1666</v>
+      </c>
+      <c r="F78">
+        <v>28186</v>
+      </c>
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" t="s">
+        <v>144</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79">
+        <v>1654</v>
+      </c>
+      <c r="F79">
+        <v>3067</v>
+      </c>
+      <c r="G79" t="s">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80">
+        <v>1653</v>
+      </c>
+      <c r="F80">
+        <v>5959</v>
+      </c>
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81">
+        <v>1645</v>
+      </c>
+      <c r="F81">
+        <v>3117</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>10</v>
+      </c>
+      <c r="I81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" t="s">
+        <v>148</v>
+      </c>
+      <c r="E82">
+        <v>1640</v>
+      </c>
+      <c r="F82">
+        <v>11221</v>
+      </c>
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83">
+        <v>1610</v>
+      </c>
+      <c r="F83">
+        <v>7247</v>
+      </c>
+      <c r="G83" t="s">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s">
+        <v>10</v>
+      </c>
+      <c r="I83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" t="s">
+        <v>151</v>
+      </c>
+      <c r="E84">
+        <v>1601</v>
+      </c>
+      <c r="F84">
+        <v>2641</v>
+      </c>
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>153</v>
+      </c>
+      <c r="E85">
+        <v>1580</v>
+      </c>
+      <c r="F85">
+        <v>9618</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86">
+        <v>1566</v>
+      </c>
+      <c r="F86">
+        <v>1566</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>-29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>155</v>
+      </c>
+      <c r="D87" t="s">
+        <v>156</v>
+      </c>
+      <c r="E87">
+        <v>1547</v>
+      </c>
+      <c r="F87">
+        <v>3410</v>
+      </c>
+      <c r="G87" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>-76</v>
+      </c>
+      <c r="C88" t="s">
+        <v>157</v>
+      </c>
+      <c r="D88" t="s">
+        <v>158</v>
+      </c>
+      <c r="E88">
+        <v>1545</v>
+      </c>
+      <c r="F88">
+        <v>6329</v>
+      </c>
+      <c r="G88" t="s">
+        <v>52</v>
+      </c>
+      <c r="H88" t="s">
+        <v>25</v>
+      </c>
+      <c r="I88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" t="s">
+        <v>160</v>
+      </c>
+      <c r="E89">
+        <v>1532</v>
+      </c>
+      <c r="F89">
+        <v>4897</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>10</v>
+      </c>
+      <c r="I89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>38</v>
+      </c>
+      <c r="C90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" t="s">
+        <v>162</v>
+      </c>
+      <c r="E90">
+        <v>1512</v>
+      </c>
+      <c r="F90">
+        <v>10208</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
+      <c r="H90" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>163</v>
+      </c>
+      <c r="D91" t="s">
+        <v>164</v>
+      </c>
+      <c r="E91">
+        <v>1492</v>
+      </c>
+      <c r="F91">
+        <v>2650</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>-74</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" t="s">
+        <v>166</v>
+      </c>
+      <c r="E92">
+        <v>1489</v>
+      </c>
+      <c r="F92">
+        <v>4962</v>
+      </c>
+      <c r="G92" t="s">
+        <v>54</v>
+      </c>
+      <c r="H92" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93">
+        <v>1477</v>
+      </c>
+      <c r="F93">
+        <v>6250</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" t="s">
+        <v>169</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>1466</v>
+      </c>
+      <c r="F94">
+        <v>1466</v>
+      </c>
+      <c r="G94" t="s">
+        <v>54</v>
+      </c>
+      <c r="H94" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>-22</v>
+      </c>
+      <c r="C95" t="s">
+        <v>170</v>
+      </c>
+      <c r="D95" t="s">
+        <v>42</v>
+      </c>
+      <c r="E95">
+        <v>1459</v>
+      </c>
+      <c r="F95">
+        <v>5465</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96">
+        <v>1451</v>
+      </c>
+      <c r="F96">
+        <v>6628</v>
+      </c>
+      <c r="G96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H96" t="s">
+        <v>20</v>
+      </c>
+      <c r="I96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" t="s">
+        <v>173</v>
+      </c>
+      <c r="D97" t="s">
+        <v>174</v>
+      </c>
+      <c r="E97">
+        <v>1451</v>
+      </c>
+      <c r="F97">
+        <v>1812</v>
+      </c>
+      <c r="G97" t="s">
+        <v>13</v>
+      </c>
+      <c r="H97" t="s">
+        <v>25</v>
+      </c>
+      <c r="I97" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>-72</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" t="s">
+        <v>166</v>
+      </c>
+      <c r="E98">
+        <v>1407</v>
+      </c>
+      <c r="F98">
+        <v>4290</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>-24</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E99">
+        <v>1405</v>
+      </c>
+      <c r="F99">
+        <v>3735</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E100">
+        <v>1398</v>
+      </c>
+      <c r="F100">
+        <v>1398</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>20</v>
+      </c>
+      <c r="I100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>-76</v>
+      </c>
+      <c r="C101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D101" t="s">
+        <v>180</v>
+      </c>
+      <c r="E101">
+        <v>1377</v>
+      </c>
+      <c r="F101">
+        <v>4377</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
+        <v>20</v>
+      </c>
+      <c r="I101" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
